--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -783,7 +783,7 @@
         <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
       </c>
       <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
         <v>2.38</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -783,16 +783,16 @@
         <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>13</v>
@@ -810,16 +810,16 @@
         <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
@@ -759,7 +759,7 @@
         <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>2.38</v>
@@ -771,22 +771,22 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>9.5</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YXCWXGQ0</t>
+          <t>pfFJMQv1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,1264 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9</v>
       </c>
-      <c r="AI2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
       </c>
       <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB2" t="n">
         <v>151</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>YFeEr81K</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AekhyQgf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6Nr1Z3O6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WEPC5duq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Crawley</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV6" t="n">
         <v>41</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CrC6Bghm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>YXCWXGQ0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>15</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
         <v>4</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX8" t="n">
         <v>9</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY8" t="n">
         <v>17</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="AZ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA8" t="n">
         <v>41</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB8" t="n">
         <v>101</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.2</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1344,37 +1344,37 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1383,19 +1383,19 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>19</v>
@@ -1440,13 +1440,13 @@
         <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WEPC5duq</t>
+          <t>xripwnPs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1502,13 +1502,13 @@
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1523,19 +1523,19 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1556,34 +1556,34 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1601,34 +1601,34 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CrC6Bghm</t>
+          <t>KhRHJuMt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,95 +1638,95 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.25</v>
       </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.2</v>
       </c>
-      <c r="L7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1735,67 +1735,67 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>10</v>
       </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
@@ -1804,13 +1804,13 @@
         <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YXCWXGQ0</t>
+          <t>WEPC5duq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,65 +1820,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1887,31 +1887,31 @@
         <v>2.2</v>
       </c>
       <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
         <v>15</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AB8" t="n">
         <v>23</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
         <v>13</v>
       </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,43 +1920,43 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
@@ -1965,27 +1965,391 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CrC6Bghm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>YXCWXGQ0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15</v>
+      </c>
+      <c r="X10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
         <v>4</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX10" t="n">
         <v>9</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY10" t="n">
         <v>17</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ10" t="n">
         <v>26</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA10" t="n">
         <v>41</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB10" t="n">
         <v>101</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC10" t="n">
         <v>51</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1440,7 +1440,7 @@
         <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1117,7 +1117,7 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1681,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.67</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1117,7 +1117,7 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -2057,7 +2057,7 @@
         <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T9" t="n">
         <v>2.75</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2239,31 +2239,31 @@
         <v>2.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T10" t="n">
         <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2287,16 +2287,16 @@
         <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
@@ -2305,7 +2305,7 @@
         <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2332,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -807,7 +807,7 @@
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>7.5</v>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -876,7 +876,7 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
@@ -1505,10 +1505,10 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
         <v>10</v>
@@ -1577,10 +1577,10 @@
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1687,10 +1687,10 @@
         <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -2051,13 +2051,13 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
         <v>2.75</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -2233,37 +2233,37 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
         <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2287,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
@@ -2296,7 +2296,7 @@
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pfFJMQv1</t>
+          <t>pU1cvevb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
         <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
         <v>81</v>
       </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YFeEr81K</t>
+          <t>YXSjlW7M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.6</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>34</v>
       </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>13</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
         <v>11</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
         <v>21</v>
       </c>
-      <c r="AL3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="BA3" t="n">
         <v>151</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AekhyQgf</t>
+          <t>pfFJMQv1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,73 +1102,73 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
@@ -1177,85 +1177,85 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6Nr1Z3O6</t>
+          <t>YFeEr81K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,37 +1284,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1341,28 +1341,28 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1374,37 +1374,37 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
         <v>11</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>17</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1419,25 +1419,25 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xripwnPs</t>
+          <t>AekhyQgf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1499,16 +1499,16 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,28 +1517,28 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1556,40 +1556,40 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
         <v>15</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="n">
         <v>21</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>26</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
@@ -1598,19 +1598,19 @@
         <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1619,7 +1619,7 @@
         <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KhRHJuMt</t>
+          <t>6Nr1Z3O6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.85</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
         <v>17</v>
       </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WEPC5duq</t>
+          <t>xripwnPs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1866,13 +1866,13 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1881,25 +1881,25 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,34 +1920,34 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1965,34 +1965,34 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CrC6Bghm</t>
+          <t>KhRHJuMt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,95 +2002,95 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.25</v>
       </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2099,67 +2099,67 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>10</v>
       </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2168,13 +2168,13 @@
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YXCWXGQ0</t>
+          <t>WEPC5duq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
         <v>1.62</v>
@@ -2251,31 +2251,31 @@
         <v>2.2</v>
       </c>
       <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
         <v>15</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AB10" t="n">
         <v>23</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AC10" t="n">
         <v>13</v>
       </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -2284,43 +2284,43 @@
         <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
         <v>7.5</v>
@@ -2329,27 +2329,391 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CrC6Bghm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>YXCWXGQ0</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="I12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AK12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY12" t="n">
         <v>17</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ12" t="n">
         <v>26</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA12" t="n">
         <v>41</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB12" t="n">
         <v>101</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC12" t="n">
         <v>51</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pfFJMQv1</t>
+          <t>fJiiKxfR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,65 +1092,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>1.83</v>
@@ -1159,25 +1159,25 @@
         <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1195,25 +1195,25 @@
         <v>7.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>10</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
         <v>21</v>
       </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1228,43 +1228,43 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YFeEr81K</t>
+          <t>pfFJMQv1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,37 +1284,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1329,31 +1329,31 @@
         <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
@@ -1362,25 +1362,25 @@
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
@@ -1422,7 +1422,7 @@
         <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
@@ -1431,13 +1431,13 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AekhyQgf</t>
+          <t>YFeEr81K</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,85 +1466,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.73</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1553,37 +1553,37 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>81</v>
@@ -1592,34 +1592,34 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6Nr1Z3O6</t>
+          <t>AekhyQgf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.1</v>
       </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>17</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
       <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
         <v>26</v>
       </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY7" t="n">
         <v>19</v>
       </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xripwnPs</t>
+          <t>6Nr1Z3O6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,121 +1830,121 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.73</v>
       </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
         <v>10</v>
       </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
       </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>12</v>
       </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1953,37 +1953,37 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KhRHJuMt</t>
+          <t>xripwnPs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2045,16 +2045,16 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2063,28 +2063,28 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
         <v>17</v>
       </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -2102,40 +2102,40 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
         <v>21</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
         <v>3.25</v>
@@ -2147,25 +2147,25 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
         <v>21</v>
       </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WEPC5duq</t>
+          <t>KhRHJuMt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,41 +2184,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2227,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2254,19 +2254,19 @@
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
@@ -2284,28 +2284,28 @@
         <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2329,19 +2329,19 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>151</v>
@@ -2350,13 +2350,13 @@
         <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CrC6Bghm</t>
+          <t>WEPC5duq</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,85 +2376,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.25</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
       </c>
       <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
         <v>12</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2463,22 +2463,22 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>29</v>
@@ -2487,10 +2487,10 @@
         <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2499,10 +2499,10 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
@@ -2511,7 +2511,7 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
         <v>17</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YXCWXGQ0</t>
+          <t>CrC6Bghm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,173 +2548,173 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>13</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
         <v>13</v>
       </c>
-      <c r="AL12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>21</v>
       </c>
-      <c r="AN12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.37</v>
@@ -1496,7 +1496,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1681,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1693,7 +1693,7 @@
         <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
         <v>3.25</v>
@@ -1875,7 +1875,7 @@
         <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
@@ -2436,7 +2436,7 @@
         <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2466,16 +2466,16 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>26</v>
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2514,7 +2514,7 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1147,7 +1147,7 @@
         <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
         <v>2.5</v>
@@ -1293,55 +1293,55 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1359,25 +1359,25 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1386,16 +1386,16 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1407,13 +1407,13 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1425,7 +1425,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1511,7 +1511,7 @@
         <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
         <v>2.75</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
@@ -1672,7 +1672,7 @@
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1693,7 +1693,7 @@
         <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
         <v>3.25</v>
@@ -1747,7 +1747,7 @@
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1786,13 +1786,13 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1875,7 +1875,7 @@
         <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1929,16 +1929,16 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
@@ -1974,7 +1974,7 @@
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
@@ -2406,7 +2406,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2615,7 +2615,7 @@
         <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2624,19 +2624,19 @@
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
         <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2657,7 +2657,7 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2678,7 +2678,7 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
@@ -2693,10 +2693,10 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1311,22 +1311,22 @@
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1344,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1386,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>26</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,55 +1475,55 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>23</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1550,31 +1550,31 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
         <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
         <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
@@ -1589,10 +1589,10 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
         <v>13</v>
@@ -1619,7 +1619,7 @@
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1663,7 +1663,7 @@
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
@@ -1750,7 +1750,7 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1869,28 +1869,28 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1911,22 +1911,22 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1968,10 +1968,10 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>67</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2057,7 +2057,7 @@
         <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
         <v>3.25</v>
@@ -2123,10 +2123,10 @@
         <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2227,19 +2227,19 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
         <v>3.25</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2481,10 +2481,10 @@
         <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2517,13 +2517,13 @@
         <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
@@ -2573,7 +2573,7 @@
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2585,10 +2585,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2618,10 +2618,10 @@
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2648,7 +2648,7 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2660,7 +2660,7 @@
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1493,10 +1493,10 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,22 +1505,22 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.73</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>9</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1556,7 +1556,7 @@
         <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1586,13 +1586,13 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1660,7 +1660,7 @@
         <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.83</v>
@@ -1669,10 +1669,10 @@
         <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,31 +1681,31 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.73</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1723,22 +1723,22 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
@@ -1750,7 +1750,7 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
@@ -1774,7 +1774,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1792,7 +1792,7 @@
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1857,40 +1857,40 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1905,19 +1905,19 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
@@ -1926,7 +1926,7 @@
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1959,7 +1959,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,10 +1968,10 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>67</v>
@@ -1980,7 +1980,7 @@
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>501</v>
@@ -2057,7 +2057,7 @@
         <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
         <v>3.25</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2239,7 +2239,7 @@
         <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
         <v>3.25</v>
@@ -2251,7 +2251,7 @@
         <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2326,13 +2326,13 @@
         <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>26</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
@@ -2421,16 +2421,16 @@
         <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
@@ -2469,16 +2469,16 @@
         <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2514,13 +2514,13 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2624,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
@@ -2651,10 +2651,10 @@
         <v>9.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>29</v>
@@ -2669,7 +2669,7 @@
         <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1619,7 +1619,7 @@
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.9</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1693,22 +1693,22 @@
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
@@ -1717,16 +1717,16 @@
         <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1741,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
@@ -1750,7 +1750,7 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
@@ -1774,7 +1774,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1786,16 +1786,16 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1854,7 +1854,7 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1890,13 +1890,13 @@
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1923,25 +1923,25 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1974,7 +1974,7 @@
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
@@ -2063,10 +2063,10 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -2081,7 +2081,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>29</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2221,22 +2221,22 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2391,7 +2391,7 @@
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>2.5</v>
@@ -2415,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2427,10 +2427,10 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
@@ -2451,7 +2451,7 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2466,7 +2466,7 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>21</v>
@@ -2502,7 +2502,7 @@
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
@@ -2514,13 +2514,13 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2615,19 +2615,19 @@
         <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
@@ -2651,16 +2651,16 @@
         <v>9.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
@@ -2669,7 +2669,7 @@
         <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fJiiKxfR</t>
+          <t>Is05xZ8A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>26</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pfFJMQv1</t>
+          <t>OK01wFg4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>4.33</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
         <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
       </c>
       <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>26</v>
       </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>21</v>
       </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="BA5" t="n">
         <v>151</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YFeEr81K</t>
+          <t>fJiiKxfR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,77 +1456,77 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1535,28 +1535,28 @@
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1571,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>4.75</v>
@@ -1580,55 +1580,55 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AekhyQgf</t>
+          <t>nglqMbPE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
         <v>23</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>34</v>
-      </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>13</v>
       </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>21</v>
-      </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>81</v>
       </c>
       <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA7" t="n">
         <v>151</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6Nr1Z3O6</t>
+          <t>xripwnPs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,118 +1830,118 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
         <v>26</v>
       </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1953,37 +1953,37 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>xripwnPs</t>
+          <t>KhRHJuMt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,49 +2012,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2069,19 +2069,19 @@
         <v>2.2</v>
       </c>
       <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>10</v>
       </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -2102,34 +2102,34 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>10</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2144,577 +2144,31 @@
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>KhRHJuMt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Watford</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>WEPC5duq</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ENGLAND - LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Burton</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Crawley</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CrC6Bghm</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ENGLAND - LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Stockport County</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fJiiKxfR</t>
+          <t>4vGVUMLi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,59 +1456,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1517,76 +1517,76 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1601,34 +1601,34 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nglqMbPE</t>
+          <t>C4JwT0j4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xripwnPs</t>
+          <t>lWXr7JTp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1869,130 +1869,130 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="BC8" t="n">
-        <v>451</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KhRHJuMt</t>
+          <t>fJiiKxfR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,173 +2002,719 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>10</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AK9" t="n">
         <v>23</v>
       </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AL9" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
       </c>
       <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nglqMbPE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
         <v>151</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BB10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bX7l0H2e</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB11" t="n">
         <v>501</v>
       </c>
-      <c r="BD9" t="n">
-        <v>151</v>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GhWO2Qne</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -795,19 +795,19 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -882,13 +882,13 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -944,7 +944,7 @@
         <v>1.73</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -980,22 +980,22 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1013,13 +1013,13 @@
         <v>5.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -1037,7 +1037,7 @@
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
         <v>151</v>
@@ -1046,7 +1046,7 @@
         <v>501</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
@@ -1055,7 +1055,7 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1329,10 +1329,10 @@
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
         <v>2.63</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2427,10 +2427,10 @@
         <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>5</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>17</v>
@@ -2451,13 +2451,13 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
@@ -2487,16 +2487,16 @@
         <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>251</v>
@@ -2520,7 +2520,7 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="n">
         <v>201</v>
@@ -2715,6 +2715,370 @@
       </c>
       <c r="BD12" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OtIA6mZO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Club Leon</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tYGTM8J5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Guadalajara Chivas</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -777,10 +777,10 @@
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -789,25 +789,25 @@
         <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
         <v>21</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,10 +816,10 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>101</v>
@@ -828,16 +828,16 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -846,19 +846,19 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>351</v>
@@ -873,22 +873,22 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -944,7 +944,7 @@
         <v>1.73</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
@@ -1013,13 +1013,13 @@
         <v>5.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -1055,7 +1055,7 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1672,7 +1672,7 @@
         <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1869,10 +1869,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2039,10 +2039,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2051,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2069,7 +2069,7 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -2111,10 +2111,10 @@
         <v>10</v>
       </c>
       <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
         <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2144,7 +2144,7 @@
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>4.5</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.62</v>
@@ -2233,10 +2233,10 @@
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
         <v>1.67</v>
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>19</v>
@@ -2302,16 +2302,16 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2427,10 +2427,10 @@
         <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
         <v>5</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>17</v>
@@ -2457,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
@@ -2469,10 +2469,10 @@
         <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>67</v>
@@ -2487,16 +2487,16 @@
         <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>251</v>
@@ -2520,7 +2520,7 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA11" t="n">
         <v>201</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
@@ -2591,10 +2591,10 @@
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.5</v>
@@ -2651,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2702,13 +2702,13 @@
         <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
         <v>126</v>
@@ -2961,10 +2961,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
@@ -1013,7 +1013,7 @@
         <v>5.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1681,16 +1681,16 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1857,10 +1857,10 @@
         <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1869,10 +1869,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2054,13 +2054,13 @@
         <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
         <v>1.83</v>
@@ -2069,16 +2069,16 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
@@ -2087,7 +2087,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2105,22 +2105,22 @@
         <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>10</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -2138,7 +2138,7 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2147,19 +2147,19 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2233,10 +2233,10 @@
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.67</v>
@@ -2779,10 +2779,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
         <v>5.5</v>
@@ -2952,7 +2952,7 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2988,7 +2988,7 @@
         <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA14" t="n">
         <v>41</v>
@@ -2997,7 +2997,7 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
@@ -3030,7 +3030,7 @@
         <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
         <v>29</v>
@@ -3042,7 +3042,7 @@
         <v>101</v>
       </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
@@ -3051,7 +3051,7 @@
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3063,7 +3063,7 @@
         <v>7.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -953,22 +953,22 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
@@ -1013,7 +1013,7 @@
         <v>5.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1129,28 +1129,28 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1162,31 +1162,31 @@
         <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1198,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1207,13 +1207,13 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1225,10 +1225,10 @@
         <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
@@ -1249,7 +1249,7 @@
         <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1511,7 +1511,7 @@
         <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -2036,7 +2036,7 @@
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2051,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2081,7 +2081,7 @@
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2102,16 +2102,16 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2153,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.62</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
         <v>2.3</v>
@@ -2400,19 +2400,19 @@
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.35</v>
@@ -2427,13 +2427,13 @@
         <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
         <v>6.5</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>17</v>
@@ -2451,13 +2451,13 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
@@ -2466,13 +2466,13 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>67</v>
@@ -2487,10 +2487,10 @@
         <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>29</v>
@@ -2499,7 +2499,7 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pU1cvevb</t>
+          <t>Is05xZ8A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,142 +738,142 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
         <v>17</v>
       </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YXSjlW7M</t>
+          <t>OK01wFg4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -947,28 +947,28 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -983,22 +983,22 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -1007,25 +1007,25 @@
         <v>126</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>5.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
         <v>4.5</v>
@@ -1046,13 +1046,13 @@
         <v>501</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW3" t="n">
         <v>4.5</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Is05xZ8A</t>
+          <t>4vGVUMLi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
         <v>1.75</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
         <v>101</v>
       </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>451</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OK01wFg4</t>
+          <t>C4JwT0j4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>1.38</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
         <v>4.33</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
         <v>12</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
       <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK5" t="n">
         <v>51</v>
       </c>
-      <c r="AC5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
         <v>126</v>
       </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="AW5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>151</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4vGVUMLi</t>
+          <t>lWXr7JTp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
         <v>4.33</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
         <v>7</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>6.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU6" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AV6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AW6" t="n">
         <v>9</v>
       </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C4JwT0j4</t>
+          <t>fJiiKxfR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
         <v>7</v>
       </c>
-      <c r="X7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
       </c>
       <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>81</v>
       </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lWXr7JTp</t>
+          <t>nglqMbPE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,161 +1820,161 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="V8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
         <v>8</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
-        <v>451</v>
+        <v>7.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
@@ -1983,16 +1983,16 @@
         <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fJiiKxfR</t>
+          <t>bX7l0H2e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2045,124 +2045,124 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.25</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9</v>
       </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>12</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13</v>
-      </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nglqMbPE</t>
+          <t>GhWO2Qne</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,125 +2184,125 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
         <v>6</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>19</v>
       </c>
-      <c r="AA10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23</v>
-      </c>
       <c r="AF10" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
         <v>201</v>
       </c>
-      <c r="AH10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2311,52 +2311,52 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
       </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bX7l0H2e</t>
+          <t>OtIA6mZO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
         <v>7.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>9</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>29</v>
       </c>
       <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
         <v>51</v>
       </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV11" t="n">
+      <c r="AW11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
         <v>81</v>
       </c>
-      <c r="AW11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
+      <c r="BB11" t="n">
         <v>151</v>
       </c>
-      <c r="BA11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB11" t="n">
+      <c r="BC11" t="n">
         <v>501</v>
       </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GhWO2Qne</t>
+          <t>tYGTM8J5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,536 +2548,172 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>1.53</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.95</v>
       </c>
-      <c r="L12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY12" t="n">
         <v>19</v>
       </c>
-      <c r="AF12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OtIA6mZO</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Club Leon</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>tYGTM8J5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Santos Laguna</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W14" t="n">
-        <v>15</v>
-      </c>
-      <c r="X14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD14" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,13 +753,13 @@
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -780,7 +780,7 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
         <v>1.78</v>
@@ -798,7 +798,7 @@
         <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -813,7 +813,7 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -825,7 +825,7 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
         <v>1.83</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1493,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fJiiKxfR</t>
+          <t>nglqMbPE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.75</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nglqMbPE</t>
+          <t>bX7l0H2e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,106 +1830,106 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.05</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI8" t="n">
         <v>19</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1938,49 +1938,49 @@
         <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>29</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bX7l0H2e</t>
+          <t>GhWO2Qne</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.67</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
         <v>6</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
       </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GhWO2Qne</t>
+          <t>OtIA6mZO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,107 +2184,107 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
         <v>4.33</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.1</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
         <v>21</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2296,67 +2296,67 @@
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN10" t="n">
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>29</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
         <v>51</v>
       </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OtIA6mZO</t>
+          <t>tYGTM8J5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,49 +2376,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>5.75</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>1.53</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2427,293 +2427,111 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
+        <v>15</v>
+      </c>
+      <c r="X11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>8.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN11" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AO11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP11" t="n">
         <v>34</v>
       </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>23</v>
       </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>tYGTM8J5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Santos Laguna</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>12</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W12" t="n">
-        <v>15</v>
-      </c>
-      <c r="X12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD12" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -759,7 +759,7 @@
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -780,7 +780,7 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.78</v>
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -962,13 +962,13 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1693,10 +1693,10 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
         <v>2.5</v>
@@ -1714,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1735,16 +1735,16 @@
         <v>101</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1774,7 +1774,7 @@
         <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1783,10 +1783,10 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,22 +2227,22 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -2251,7 +2251,7 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>9</v>
@@ -2260,10 +2260,10 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>21</v>
@@ -2272,10 +2272,10 @@
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -2284,13 +2284,13 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2305,13 +2305,13 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
@@ -2320,13 +2320,13 @@
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
         <v>6.5</v>
@@ -2347,7 +2347,7 @@
         <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2421,7 +2421,7 @@
         <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -795,19 +795,19 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -819,22 +819,22 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
@@ -873,10 +873,10 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -885,7 +885,7 @@
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -1147,7 +1147,7 @@
         <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T4" t="n">
         <v>2.5</v>
@@ -1329,7 +1329,7 @@
         <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
         <v>3.25</v>
@@ -1511,7 +1511,7 @@
         <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
         <v>3.4</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1693,7 +1693,7 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T7" t="n">
         <v>2.2</v>
@@ -1744,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -2045,10 +2045,10 @@
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
         <v>2.5</v>
@@ -2233,13 +2233,13 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
         <v>3.4</v>
@@ -2275,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -2284,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -2421,7 +2421,7 @@
         <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
         <v>4.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -783,10 +783,10 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -795,49 +795,49 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
         <v>17</v>
       </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -846,22 +846,22 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -873,19 +873,19 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -947,28 +947,28 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="N3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -983,13 +983,13 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
@@ -1001,16 +1001,16 @@
         <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>126</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -1046,7 +1046,7 @@
         <v>501</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AU3" t="n">
         <v>12</v>
@@ -1147,7 +1147,7 @@
         <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
         <v>2.5</v>
@@ -1323,10 +1323,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1493,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1511,7 +1511,7 @@
         <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
         <v>3.4</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1693,7 +1693,7 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
         <v>2.2</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1881,31 +1881,31 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
@@ -1917,19 +1917,19 @@
         <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1938,19 +1938,19 @@
         <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>251</v>
@@ -1965,10 +1965,10 @@
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -2045,10 +2045,10 @@
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
         <v>2.5</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
@@ -2239,10 +2239,10 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -2284,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -2302,7 +2302,7 @@
         <v>151</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
         <v>8.5</v>
@@ -2311,7 +2311,7 @@
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
@@ -2320,7 +2320,7 @@
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
         <v>7.5</v>
@@ -2338,7 +2338,7 @@
         <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
@@ -2406,7 +2406,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -783,10 +783,10 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -825,7 +825,7 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -837,7 +837,7 @@
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>2.55</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.73</v>
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O3" t="n">
         <v>1.8</v>
@@ -980,13 +980,13 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>34</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AD3" t="n">
         <v>5.5</v>
@@ -1037,7 +1037,7 @@
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>151</v>
@@ -1049,16 +1049,16 @@
         <v>1.91</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1162,7 +1162,7 @@
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1189,10 +1189,10 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1201,7 +1201,7 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1329,7 +1329,7 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
         <v>3.25</v>
@@ -1484,13 +1484,13 @@
         <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1505,10 +1505,10 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1517,37 +1517,37 @@
         <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1559,10 +1559,10 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1571,7 +1571,7 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AN6" t="n">
         <v>3.25</v>
@@ -1595,7 +1595,7 @@
         <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1616,7 +1616,7 @@
         <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1663,7 +1663,7 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1693,10 +1693,10 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
         <v>2.5</v>
@@ -1717,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1735,7 +1735,7 @@
         <v>101</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
@@ -1744,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1857,10 +1857,10 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1890,7 +1890,7 @@
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1938,10 +1938,10 @@
         <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1962,7 +1962,7 @@
         <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>6.5</v>
@@ -1974,7 +1974,7 @@
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
@@ -2045,10 +2045,10 @@
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
         <v>2.5</v>
@@ -2239,7 +2239,7 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
         <v>3.5</v>
@@ -2415,13 +2415,13 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -1129,16 +1129,16 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1.83</v>
@@ -1493,10 +1493,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1505,10 +1505,10 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1517,10 +1517,10 @@
         <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1529,10 +1529,10 @@
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
@@ -1541,16 +1541,16 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1559,7 +1559,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>81</v>
@@ -1571,10 +1571,10 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
         <v>6.5</v>
@@ -1851,22 +1851,22 @@
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.35</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1944,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1953,7 +1953,7 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2057,10 +2057,10 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -2069,19 +2069,19 @@
         <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2093,25 +2093,25 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2120,10 +2120,10 @@
         <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2138,7 +2138,7 @@
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -2254,13 +2254,13 @@
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -2269,10 +2269,10 @@
         <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2281,10 +2281,10 @@
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2329,13 +2329,13 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>81</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
         <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2442,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="n">
         <v>41</v>
@@ -2451,13 +2451,13 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2466,37 +2466,37 @@
         <v>7.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP11" t="n">
         <v>29</v>
       </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR11" t="n">
         <v>101</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>126</v>
       </c>
       <c r="AS11" t="n">
         <v>201</v>
@@ -2505,7 +2505,7 @@
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2514,10 +2514,10 @@
         <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OtIA6mZO</t>
+          <t>pU1cvevb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.62</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>2.2</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="Q2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
         <v>8.5</v>
       </c>
-      <c r="X2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AI2" t="n">
         <v>21</v>
       </c>
-      <c r="AC2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>17</v>
       </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tYGTM8J5</t>
+          <t>YXSjlW7M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,172 +910,3812 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
         <v>5</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
         <v>13</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
         <v>26</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>13</v>
       </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
         <v>81</v>
       </c>
       <c r="AR3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
         <v>101</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Is05xZ8A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Union de Santa Fe</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
         <v>201</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>OK01wFg4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Newells Old Boys</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4vGVUMLi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
         <v>8</v>
       </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C4JwT0j4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lWXr7JTp</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fJiiKxfR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.75</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nglqMbPE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>19</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
         <v>26</v>
       </c>
-      <c r="BA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB3" t="n">
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bX7l0H2e</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GhWO2Qne</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC12" t="n">
         <v>126</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pfFJMQv1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>YFeEr81K</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AekhyQgf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC15" t="n">
         <v>501</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD15" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6Nr1Z3O6</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xripwnPs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KhRHJuMt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WEPC5duq</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Crawley</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CrC6Bghm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>YXCWXGQ0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>15</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OtIA6mZO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Club Leon</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tYGTM8J5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Guadalajara Chivas</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD23" t="n">
         <v>151</v>
       </c>
     </row>
